--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>AppType.ClientH |  AppType.ClientM | AppType.Gate | AppType.Map</t>
   </si>
@@ -22,37 +22,10 @@
     <t>Id</t>
   </si>
   <si>
-    <t>#测试说明</t>
-  </si>
-  <si>
     <t>名字</t>
   </si>
   <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>体重</t>
-  </si>
-  <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Weight</t>
   </si>
   <si>
     <t>int</t>
@@ -61,13 +34,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>测试说明</t>
-  </si>
-  <si>
     <t>米克尔</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
   </si>
 </sst>
 </file>
@@ -75,8 +42,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -110,43 +77,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,16 +91,92 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,14 +197,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,48 +205,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,19 +235,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,49 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,109 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,17 +429,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,11 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,7 +487,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,51 +526,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,146 +544,143 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1065,24 +1029,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1090,92 +1049,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:9">
+    <row r="3" spans="3:4">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="4" spans="3:9">
+    <row r="4" spans="3:4">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>12</v>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:9">
+    <row r="5" spans="3:4">
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:9">
+    <row r="6" s="1" customFormat="1" spans="3:4">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>178</v>
-      </c>
-      <c r="I6" s="1">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
